--- a/resistance_assay/20241121_Sink_Isolates_AR_22-4.xlsx
+++ b/resistance_assay/20241121_Sink_Isolates_AR_22-4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecan\Documents\Zhengqing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iridashyti/Documents/Duke_you_lab/sink_microbe_isolates/resistance_assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB023E86-431D-1647-B42A-F031D4DF01CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -121,12 +122,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -216,12 +217,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -311,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -544,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +573,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -667,13 +668,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,16 +951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -978,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -986,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -994,7 +995,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1026,12 +1027,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1052,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1072,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1091,12 +1092,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1161,12 +1162,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1233,27 +1234,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="6">
-        <v>5.6699998676776886E-2</v>
+        <v>1.6219999790191699</v>
       </c>
       <c r="C32" s="6">
-        <v>0.2215999960899353</v>
+        <v>0.36669999361038202</v>
       </c>
       <c r="D32" s="6">
-        <v>0.67059999704360962</v>
+        <v>0.3817999958992</v>
       </c>
       <c r="E32" s="6">
-        <v>5.260000005364418E-2</v>
+        <v>4.7100000083446503E-2</v>
       </c>
       <c r="F32" s="6">
-        <v>1.3549000024795532</v>
+        <v>4.6000000089407002E-2</v>
       </c>
       <c r="G32" s="6">
-        <v>1.3464000225067139</v>
+        <v>4.72000017762184E-2</v>
       </c>
       <c r="H32" s="6">
         <v>4.2800001800060272E-2</v>
@@ -1268,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -1326,19 +1327,19 @@
         <v>4.2899999767541885E-2</v>
       </c>
       <c r="H34">
-        <v>5.1500000059604645E-2</v>
+        <v>4.65999990701675E-2</v>
       </c>
       <c r="I34">
-        <v>0.68220001459121704</v>
+        <v>4.6700000762939502E-2</v>
       </c>
       <c r="J34">
-        <v>1.2511999607086099</v>
+        <v>0.339300006628036</v>
       </c>
       <c r="K34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
@@ -1475,28 +1476,28 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D42">
-        <v>1.621999979019165</v>
+        <v>1.6219999790191699</v>
       </c>
       <c r="E42">
-        <v>0.36669999361038208</v>
+        <v>0.36669999361038202</v>
       </c>
       <c r="F42">
-        <v>0.38179999589920044</v>
+        <v>0.3817999958992</v>
       </c>
       <c r="G42">
         <v>4.7100000083446503E-2</v>
       </c>
       <c r="H42">
-        <v>4.6000000089406967E-2</v>
+        <v>4.6000000089407002E-2</v>
       </c>
       <c r="I42">
-        <v>4.7200001776218414E-2</v>
+        <v>4.72000017762184E-2</v>
       </c>
       <c r="J42">
         <v>4.8799999058246613E-2</v>
@@ -1508,21 +1509,21 @@
         <v>1.509600043296814</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D43">
-        <v>4.6599999070167542E-2</v>
+        <v>4.65999990701675E-2</v>
       </c>
       <c r="E43">
-        <v>4.6700000762939453E-2</v>
+        <v>4.6700000762939502E-2</v>
       </c>
       <c r="F43">
-        <v>0.3393000066280365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.339300006628036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>56</v>
       </c>
@@ -1564,16 +1565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1640,12 +1641,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1666,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1686,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1705,12 +1706,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1775,12 +1776,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1861,13 +1862,13 @@
         <v>1.3495999574661255</v>
       </c>
       <c r="E32">
-        <v>7.0600003004074097E-2</v>
+        <v>4.8799999058246599E-2</v>
       </c>
       <c r="F32">
-        <v>9.7499996423721313E-2</v>
+        <v>1.2474999427795399</v>
       </c>
       <c r="G32">
-        <v>0.56859999895095825</v>
+        <v>1.50960004329681</v>
       </c>
       <c r="H32">
         <v>1.3092000484466553</v>
@@ -1882,7 +1883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2057,8 +2058,98 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46">
+        <v>1.6219999790191699</v>
+      </c>
+      <c r="G46">
+        <v>0.36669999361038202</v>
+      </c>
+      <c r="H46">
+        <v>0.3817999958992</v>
+      </c>
+      <c r="I46">
+        <v>4.7100000083446503E-2</v>
+      </c>
+      <c r="J46">
+        <v>4.6000000089407002E-2</v>
+      </c>
+      <c r="K46">
+        <v>4.72000017762184E-2</v>
+      </c>
+      <c r="L46">
+        <v>4.8799999058246599E-2</v>
+      </c>
+      <c r="M46">
+        <v>1.2474999427795399</v>
+      </c>
+      <c r="N46">
+        <v>1.50960004329681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <v>4.65999990701675E-2</v>
+      </c>
+      <c r="G47">
+        <v>4.6700000762939502E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.339300006628036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:XFD32">
@@ -2079,16 +2170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2214,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2147,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2155,12 +2246,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2181,7 +2272,7 @@
       <c r="L14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2293,7 @@
       <c r="L16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2223,12 +2314,12 @@
       <c r="L17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2236,7 +2327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2258,7 +2349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2277,7 +2368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2285,7 +2376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2293,12 +2384,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -2339,7 +2430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -2383,7 +2474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -2427,7 +2518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -2471,7 +2562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +2606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2603,7 +2694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2647,7 +2738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2656,18 +2747,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2704,6 +2783,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
